--- a/experiments/241009/report_Hy_mix1.xlsx
+++ b/experiments/241009/report_Hy_mix1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t xml:space="preserve">Mass</t>
   </si>
@@ -80,64 +80,64 @@
     <t xml:space="preserve">HMDB0000820|HMDB0000863</t>
   </si>
   <si>
-    <t xml:space="preserve">C2H6N2O|C4H10O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methylurea|2-Butanol|1-Butanol|Isobutanol|2-Methylpropan-2-ol|Acetylhydrazine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0254670|HMDB0011469|HMDB0004327|HMDB0006006|HMDB0031456|HMDB0060428</t>
+    <t xml:space="preserve">C4H10O|C2H6N2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isobutanol|2-Butanol|1-Butanol|Methylurea|2-Methylpropan-2-ol|Acetylhydrazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0006006|HMDB0011469|HMDB0004327|HMDB0254670|HMDB0031456|HMDB0060428</t>
   </si>
   <si>
     <t xml:space="preserve">C3H8O2</t>
   </si>
   <si>
-    <t xml:space="preserve">Propylene glycol|(S)-Propane-1,2-diol|2-Methoxyethanol|Propanediol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0001881|HMDB0006213|HMDB0245203|HMDB0256813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propanediol|2-Methoxyethanol|Propylene glycol|(S)-Propane-1,2-diol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0256813|HMDB0245203|HMDB0001881|HMDB0006213</t>
+    <t xml:space="preserve">Propanediol|Propylene glycol|(S)-Propane-1,2-diol|2-Methoxyethanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0256813|HMDB0001881|HMDB0006213|HMDB0245203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Methoxyethanol|Propylene glycol|(S)-Propane-1,2-diol|Propanediol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0245203|HMDB0001881|HMDB0006213|HMDB0256813</t>
   </si>
   <si>
     <t xml:space="preserve">C5H12O|C3H8N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">2-Pentanol|1-Pentanol|(S)-2-Methyl-1-butanol|3-Methyl-2-butanol|3-pentanol|Neopentyl alcohol|Isopentanol|2-Methyl-2-butanol|Ethylurea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031599|HMDB0013036|HMDB0031527|HMDB0033777|HMDB0303831|HMDB0255527|HMDB0006007|HMDB0033772|HMDB0252088</t>
+    <t xml:space="preserve">3-Methyl-2-butanol|1-Pentanol|Isopentanol|Neopentyl alcohol|2-Pentanol|(S)-2-Methyl-1-butanol|3-pentanol|2-Methyl-2-butanol|Ethylurea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0033777|HMDB0013036|HMDB0006007|HMDB0255527|HMDB0031599|HMDB0031527|HMDB0303831|HMDB0033772|HMDB0252088</t>
   </si>
   <si>
     <t xml:space="preserve">C5H12O</t>
   </si>
   <si>
-    <t xml:space="preserve">2-Methyl-2-butanol|Isopentanol|2-Pentanol|1-Pentanol|(S)-2-Methyl-1-butanol|3-Methyl-2-butanol|3-pentanol|Neopentyl alcohol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0033772|HMDB0006007|HMDB0031599|HMDB0013036|HMDB0031527|HMDB0033777|HMDB0303831|HMDB0255527</t>
+    <t xml:space="preserve">2-Methyl-2-butanol|3-Methyl-2-butanol|1-Pentanol|Isopentanol|Neopentyl alcohol|2-Pentanol|(S)-2-Methyl-1-butanol|3-pentanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0033772|HMDB0033777|HMDB0013036|HMDB0006007|HMDB0255527|HMDB0031599|HMDB0031527|HMDB0303831</t>
   </si>
   <si>
     <t xml:space="preserve">C5H10O2|C3H6N2O2</t>
   </si>
   <si>
-    <t xml:space="preserve">3-Acetyl-1-propanol|MALONAMIDE|Cycloserine|Tetrahydro-2-furanmethanol|1-Hydroxy-2-pentanone|4-Hydroxypentan-2-one|Tetrahydro-2-methyl-3-furanol|3-Hydroxy-2-pentanone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0245797|HMDB0254314|HMDB0014405|HMDB0031175|HMDB0059678|HMDB0246464|HMDB0039799|HMDB0031516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4H12N2O|C5H14NO|C5H12O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-(2-Hydroxyethyl)ethylenediamine|Choline|1,3-Pentanediol|3-ethoxy-1-propanol|Pentane-2,3-diol|2-Isopropoxyethanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0244916|HMDB0000097|HMDB0244179|HMDB0303834|HMDB0256276|HMDB0245182</t>
+    <t xml:space="preserve">3-Acetyl-1-propanol|Tetrahydro-2-furanmethanol|Cycloserine|1-Hydroxy-2-pentanone|4-Hydroxypentan-2-one|3-Hydroxy-2-pentanone|Tetrahydro-2-methyl-3-furanol|MALONAMIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0245797|HMDB0031175|HMDB0014405|HMDB0059678|HMDB0246464|HMDB0031516|HMDB0039799|HMDB0254314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5H14NO|C4H12N2O|C5H12O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choline|N-(2-Hydroxyethyl)ethylenediamine|1,3-Pentanediol|3-ethoxy-1-propanol|Pentane-2,3-diol|2-Isopropoxyethanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0000097|HMDB0244916|HMDB0244179|HMDB0303834|HMDB0256276|HMDB0245182</t>
   </si>
   <si>
     <t xml:space="preserve">C5H12O2|C5H14NO|C4H12N2O</t>
@@ -152,73 +152,82 @@
     <t xml:space="preserve">C7H14O</t>
   </si>
   <si>
-    <t xml:space="preserve">3-Methylcyclohexanol|(+/-)-1-Hepten-3-ol|1-Methylcyclohexanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0031538|HMDB0303231|HMDB0059693</t>
+    <t xml:space="preserve">(Z)-4-Hepten-1-ol|(2R,4Z)-4-Hepten-2-ol|(+/-)-1-Hepten-3-ol|3-Methylcyclohexanol|1-Methylcyclohexanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0031405|HMDB0041320|HMDB0303231|HMDB0031538|HMDB0059693</t>
   </si>
   <si>
     <t xml:space="preserve">C8H16O</t>
   </si>
   <si>
-    <t xml:space="preserve">7-Octen-4-ol|(±)-(E)-2-Octen-4-ol|3,5-Dimethylcyclohexanol|3,4-Dimethylcyclohexanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0302641|HMDB0031300|HMDB0061913|HMDB0061912</t>
+    <t xml:space="preserve">(E)-2-Octen-1-ol|Oct-trans-2-en-1-ol|cis-4-Octenol|(R)-Sulcatol|(Z)-5-Octen-1-ol|(Z)-3-Octen-1-ol|(E)-3-Octen-1-ol|3,5-Dimethylcyclohexanol|(±)-(E)-2-Octen-4-ol|trans-3-Octen-2-ol|7-Octen-4-ol|xi-7-Octen-2-ol|(R)-1-Octen-3-ol|3,4-Dimethylcyclohexanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0031296|HMDB0302352|HMDB0303212|HMDB0030030|HMDB0031298|HMDB0035231|HMDB0035768|HMDB0061913|HMDB0031300|HMDB0032450|HMDB0302641|HMDB0037181|HMDB0031299|HMDB0061912</t>
   </si>
   <si>
     <t xml:space="preserve">C8H18O|C6H14N2O</t>
   </si>
   <si>
-    <t xml:space="preserve">2-Propyl-1-pentanol|2,4,4-Trimethyl-2-pentanol|2-Ethyl-4-methyl-1-pentanol|(S)-3-Ethyl-4-methylpentanol|2,3,4-Trimethyl-3-pentanol|N-(2-Hydroxyethyl)piperazine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0094707|HMDB0245471|HMDB0013818|HMDB0059859|HMDB0036166|HMDB0254989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H14O3|C4H10N2O3|C6H14OS|C9H10O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trimethylolpropane|N,N-Bis(1-hydroxyethyl)nitrous amide|Polypropylene glycol (m w 1,200-3,000)|N-NITROSODIETHANOLAMINE|6-Mercapto-1-hexanol|3-Mercapto-1-hexanol|3-Mercapto-2-methylpentanol|2-Mercapto-2-methyl-1-pentanol|(+/-)-3-(Ethylthio)butanol|mercaptohexanol|(+/-)-4-Mercapto-4-methyl-2-pentanol|Cinnamyl alcohol|trans-Cinnamyl alcohol|Indan-1-ol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0259243|HMDB0257609|HMDB0032478|HMDB0255203|HMDB0247085|HMDB0040152|HMDB0034878|HMDB0032374|HMDB0032277|HMDB0254465|HMDB0032375|HMDB0029697|HMDB0029698|HMDB0059601</t>
+    <t xml:space="preserve">(±)-2-Octanol|4-Methyl-2-heptanol|(S)-3-Octanol|Octanol|xi-2-Ethyl-1-hexanol|2-Propyl-1-pentanol|2-Ethyl-4-methyl-1-pentanol|(2xi,4xi)-2,4-Dimethyl-1-hexanol|(S)-3-Ethyl-4-methylpentanol|2,4,4-Trimethyl-2-pentanol|2,3,4-Trimethyl-3-pentanol|N-(2-Hydroxyethyl)piperazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0034261|HMDB0031589|HMDB0030070|HMDB0001183|HMDB0031231|HMDB0094707|HMDB0013818|HMDB0037791|HMDB0059859|HMDB0245471|HMDB0036166|HMDB0254989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6H14O3|C6H14OS|C4H10N2O3|C9H10O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polypropylene glycol (m w 1,200-3,000)|6-Mercapto-1-hexanol|N,N-Bis(1-hydroxyethyl)nitrous amide|(+/-)-3-(Ethylthio)butanol|3-Mercapto-1-hexanol|mercaptohexanol|2-Mercapto-2-methyl-1-pentanol|3-Mercapto-2-methylpentanol|Trimethylolpropane|N-NITROSODIETHANOLAMINE|(+/-)-4-Mercapto-4-methyl-2-pentanol|Cinnamyl alcohol|trans-Cinnamyl alcohol|7-Nonene-3,5-diyn-1-ol|Indan-1-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0032478|HMDB0247085|HMDB0257609|HMDB0032277|HMDB0040152|HMDB0254465|HMDB0032374|HMDB0034878|HMDB0259243|HMDB0255203|HMDB0032375|HMDB0029697|HMDB0029698|HMDB0034563|HMDB0059601</t>
   </si>
   <si>
     <t xml:space="preserve">C9H20O</t>
   </si>
   <si>
-    <t xml:space="preserve">2-Octanol, 2-methyl-|Diisobutylcarbinol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0245214|HMDB0031153</t>
+    <t xml:space="preserve">2-Nonanol|3-Nonanol|1-Nonanol|4-Methyloctan-1-ol|Diisobutylcarbinol|2-Octanol, 2-methyl-|(±)-3,5,5-Trimethyl-1-hexanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0033916|HMDB0031732|HMDB0031265|HMDB0246514|HMDB0031153|HMDB0245214|HMDB0031198</t>
   </si>
   <si>
     <t xml:space="preserve">C10H22O</t>
   </si>
   <si>
-    <t xml:space="preserve">3,7-Dimethyl-3-octanol|3,6-Dimethyl-3-octanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0035246|HMDB0246078</t>
+    <t xml:space="preserve">Decyl alcohol|3-Decanol|Decan-2-ol|3,6-Dimethyl-3-octanol|3,7-Dimethyl-3-octanol|(R)-Dihydrocitronellol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0011624|HMDB0031408|HMDB0303078|HMDB0246078|HMDB0035246|HMDB0035411</t>
   </si>
   <si>
     <t xml:space="preserve">C11H24O</t>
   </si>
   <si>
-    <t xml:space="preserve">2,4-Dimethyl-4-nonanol|6,10-dihydromyrcenol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0032239|HMDB0303854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6H12N2O4|C9H8N2O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycyl-Threonine|Alanylserine|Threonylglycine|Serylalanine|5-Phenylhydantoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HMDB0028851|HMDB0028696|HMDB0029061|HMDB0029032|HMDB0246838</t>
+    <t xml:space="preserve">2-Undecanol|1-Undecanol|2,4-Dimethyl-4-nonanol|6,10-dihydromyrcenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0030942|HMDB0013113|HMDB0032239|HMDB0303854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7H12O5|C10H8O3|C9H8N2O2|C6H12N2O4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Isopropylmalic acid|2-Isopropylmalic acid|2,3-Dimethyl-3-hydroxyglutaric acid|(±)-Glycerol 1,2-diacetate|10-Hydroxy-2,8-decadiene-4,6-diynoic acid|5-Phenylhydantoin|Threonylglycine|Glycyl-Threonine|Serylalanine|Alanylserine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0012156|HMDB0000402|HMDB0002025|HMDB0031712|HMDB0031054|HMDB0246838|HMDB0029061|HMDB0028851|HMDB0029032|HMDB0028696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12H26O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodecanol|2-Butyl-1-octanol|2,2-Dimethyldecan-1-ol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMDB0011626|HMDB0041288|HMDB0302690</t>
   </si>
 </sst>
 </file>
@@ -1448,15 +1457,21 @@
       <c r="B20" t="n">
         <v>640.13899999998</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20"/>
-      <c r="G20"/>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
       <c r="H20" t="n">
         <v>401277.147582501</v>
       </c>
